--- a/TelegramChannel.xlsx
+++ b/TelegramChannel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeraBoxDownload\Telegram\Telegram Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Telegram Dashboard\telegram_dashboard\Telegram-Uploader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9C1BCF-0832-4771-AAB4-6CC26098E2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF995EC-1A68-4FE5-AF17-6783D07EF4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2B379087-591D-4454-8676-0A253F8A196F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="506">
   <si>
     <t>No</t>
   </si>
@@ -1502,9 +1502,6 @@
     <t>bsonarika</t>
   </si>
   <si>
-    <t>katrinakaif</t>
-  </si>
-  <si>
     <t>nidhhiagerwal</t>
   </si>
   <si>
@@ -1523,9 +1520,6 @@
     <t>https://t.me/c/2689580104/2176</t>
   </si>
   <si>
-    <t>https://t.me/+dmFX591PSSQ1MGRl</t>
-  </si>
-  <si>
     <t>https://t.me/c/2047911469/5804</t>
   </si>
   <si>
@@ -1539,6 +1533,27 @@
   </si>
   <si>
     <t>Zareen Khan</t>
+  </si>
+  <si>
+    <t>iamsonalibendre</t>
+  </si>
+  <si>
+    <t>isha__malviya</t>
+  </si>
+  <si>
+    <t>nushrrattbharuccha</t>
+  </si>
+  <si>
+    <t>shinydoshi15</t>
+  </si>
+  <si>
+    <t>tarasutaria</t>
+  </si>
+  <si>
+    <t>tridhac</t>
+  </si>
+  <si>
+    <t>wamiqagabbi</t>
   </si>
 </sst>
 </file>
@@ -1961,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC508ECC-48B8-4292-AF88-160D12001D5B}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1995,34 +2010,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>448</v>
+        <v>372</v>
       </c>
       <c r="E2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A4" si="0">ROW(A2)</f>
+        <f t="shared" ref="A3:A8" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>495</v>
+        <v>385</v>
       </c>
       <c r="E3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.8" x14ac:dyDescent="0.35">
@@ -2031,58 +2046,82 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" t="s">
+        <v>505</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -2095,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D17C9D-F7DA-4295-8DC6-2AB880DB4A4C}">
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2133,15 +2172,6 @@
         <v>357</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
@@ -2149,20 +2179,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>162</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2174,21 +2200,19 @@
     </row>
     <row r="3" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A66" si="0">ROW(A2)</f>
+        <f>ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>315</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>165</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -2201,7 +2225,7 @@
     </row>
     <row r="4" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A4:A67" si="0">ROW(A3)</f>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2271,15 +2295,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2296,17 +2322,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>171</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2375,13 +2399,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2400,17 +2424,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>354</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2427,15 +2449,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2452,13 +2476,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2477,18 +2501,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2504,16 +2530,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2531,13 +2557,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2550,21 +2576,23 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2575,19 +2603,19 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2600,19 +2628,19 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2625,19 +2653,19 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2650,23 +2678,21 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2677,7 +2703,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2704,7 +2730,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2731,44 +2757,70 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="O24" t="s">
+        <v>481</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2781,44 +2833,56 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>194</v>
+      <c r="B26" s="7" t="s">
+        <v>325</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2831,19 +2895,19 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>196</v>
+        <v>345</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>337</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2856,23 +2920,21 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>476</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2883,19 +2945,19 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2908,19 +2970,19 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>389</v>
+        <v>468</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2933,19 +2995,19 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>339</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2964,17 +3026,15 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>203</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2991,15 +3051,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>499</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3016,16 +3078,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -3043,20 +3105,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>208</v>
+        <v>238</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>314</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3072,20 +3130,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>472</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3101,13 +3155,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3126,13 +3180,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3151,15 +3205,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -3176,17 +3232,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>57</v>
+        <v>199</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>219</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -3203,13 +3257,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -3228,13 +3282,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3253,20 +3307,18 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>224</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -3282,17 +3334,15 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>226</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -3309,13 +3359,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3334,16 +3384,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>478</v>
+        <v>217</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3361,16 +3411,20 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>472</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -3386,15 +3440,17 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>478</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -3411,13 +3467,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -3436,13 +3492,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3461,13 +3517,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -3486,20 +3542,18 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>74</v>
+        <v>218</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>236</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -3515,13 +3569,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -3540,15 +3594,17 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -3565,16 +3621,20 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3590,17 +3650,15 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>233</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3617,13 +3675,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -3642,13 +3700,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -3667,13 +3725,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -3692,16 +3750,20 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -3717,17 +3779,15 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -3744,20 +3804,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>251</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -3773,20 +3829,18 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>489</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -3802,13 +3856,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -3827,13 +3881,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -3848,19 +3902,21 @@
     </row>
     <row r="67" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
-        <f t="shared" ref="A67:A126" si="1">ROW(A66)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E67" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -3873,20 +3929,24 @@
     </row>
     <row r="68" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A68:A127" si="1">ROW(A67)</f>
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -3902,15 +3962,17 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>92</v>
+        <v>334</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E69" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -3927,17 +3989,15 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>261</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -3954,15 +4014,17 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E71" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>501</v>
+      </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -3979,16 +4041,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>427</v>
+        <v>361</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>479</v>
+        <v>165</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -4006,16 +4068,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>97</v>
+        <v>207</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -4031,17 +4097,15 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>490</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -4058,17 +4122,15 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>268</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -4085,20 +4147,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>303</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -4114,13 +4172,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>101</v>
+        <v>319</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -4139,13 +4197,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -4164,13 +4222,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>433</v>
+        <v>92</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -4189,13 +4247,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -4214,16 +4272,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -4241,13 +4299,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -4266,16 +4324,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -4293,15 +4351,17 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>109</v>
+        <v>266</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E84" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -4318,18 +4378,20 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F85" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -4345,13 +4407,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -4370,16 +4432,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -4397,15 +4459,17 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E88" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>479</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -4422,13 +4486,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>432</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -4447,18 +4511,20 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F90" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -4474,13 +4540,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>444</v>
+        <v>103</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -4499,23 +4565,17 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>290</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -4530,15 +4590,17 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="E93" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -4555,13 +4617,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -4580,15 +4642,17 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E95" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -4605,17 +4669,15 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>487</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -4659,13 +4721,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -4684,15 +4746,17 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E99" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>477</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -4709,15 +4773,17 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E100" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -4734,13 +4800,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>453</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -4759,15 +4825,17 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>135</v>
+        <v>285</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E102" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -4784,17 +4852,23 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -4809,13 +4883,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>139</v>
+        <v>119</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -4833,19 +4907,21 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>348</v>
+      <c r="B105" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F105" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>502</v>
+      </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -4861,13 +4937,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>141</v>
+        <v>291</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -4886,13 +4962,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -4911,13 +4987,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>312</v>
+        <v>294</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -4936,13 +5012,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>450</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -4961,13 +5037,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>147</v>
+        <v>301</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>148</v>
+        <v>452</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -4986,13 +5062,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>149</v>
+        <v>309</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -5011,13 +5087,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>150</v>
+        <v>302</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -5030,21 +5106,23 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>151</v>
+        <v>343</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="E113" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -5055,19 +5133,19 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -5080,19 +5158,19 @@
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>463</v>
+        <v>305</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -5105,21 +5183,23 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>153</v>
+      <c r="B116" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E116" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -5130,19 +5210,19 @@
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>155</v>
+        <v>456</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -5155,22 +5235,26 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>504</v>
+      </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -5180,56 +5264,44 @@
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>325</v>
+      <c r="B119" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>352</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>332</v>
+        <v>149</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -5242,19 +5314,19 @@
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>333</v>
+        <v>317</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -5267,23 +5339,21 @@
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
     </row>
-    <row r="122" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>334</v>
+        <v>318</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>342</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -5294,23 +5364,21 @@
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
     </row>
-    <row r="123" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>335</v>
+        <v>321</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>344</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -5321,19 +5389,19 @@
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
     </row>
-    <row r="124" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>337</v>
+        <v>322</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>338</v>
+        <v>464</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -5346,72 +5414,45 @@
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
     </row>
-    <row r="125" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>347</v>
+        <v>323</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="L125" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="M125" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="N125" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="O125" t="s">
-        <v>481</v>
-      </c>
-      <c r="P125" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+    </row>
+    <row r="126" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>480</v>
+        <v>324</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="E126" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
@@ -5422,20 +5463,23 @@
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
     </row>
-    <row r="127" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E127" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="E127" t="s">
+        <v>505</v>
+      </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -5446,7 +5490,7 @@
       <c r="M127" s="9"/>
       <c r="N127" s="2"/>
     </row>
-    <row r="128" spans="1:16" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5463,11 +5507,14 @@
       <c r="N128" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P127">
+    <sortCondition ref="B3:B127"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D104" r:id="rId1" xr:uid="{3797DD6E-3FDC-4466-954F-7274A9700FC9}"/>
-    <hyperlink ref="D118" r:id="rId2" xr:uid="{1B988FA9-B02C-41C6-9E90-E36139C61467}"/>
-    <hyperlink ref="D103" r:id="rId3" xr:uid="{899491D3-1D6B-48CC-AD73-67128ECE8EBA}"/>
-    <hyperlink ref="M125" r:id="rId4" display="https://www.instagram.com/ayezakhan.ak/" xr:uid="{573E8792-2335-4EC9-BC6F-96BC9BE1AE90}"/>
+    <hyperlink ref="D74" r:id="rId1" xr:uid="{3797DD6E-3FDC-4466-954F-7274A9700FC9}"/>
+    <hyperlink ref="D126" r:id="rId2" xr:uid="{1B988FA9-B02C-41C6-9E90-E36139C61467}"/>
+    <hyperlink ref="D115" r:id="rId3" xr:uid="{899491D3-1D6B-48CC-AD73-67128ECE8EBA}"/>
+    <hyperlink ref="M24" r:id="rId4" display="https://www.instagram.com/ayezakhan.ak/" xr:uid="{573E8792-2335-4EC9-BC6F-96BC9BE1AE90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -5478,7 +5525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE1FC93-F1BE-4C72-A965-49FB4BCA33AD}">
   <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/TelegramChannel.xlsx
+++ b/TelegramChannel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Telegram Dashboard\telegram_dashboard\Telegram-Uploader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF995EC-1A68-4FE5-AF17-6783D07EF4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF87CD8-888C-47BB-8132-8EBC19E80B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2B379087-591D-4454-8676-0A253F8A196F}"/>
   </bookViews>
@@ -1979,7 +1979,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2106,7 +2106,7 @@
         <v>504</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>458</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.8" x14ac:dyDescent="0.35">
